--- a/medicine/Psychotrope/Augustiner_Bräu/Augustiner_Bräu.xlsx
+++ b/medicine/Psychotrope/Augustiner_Bräu/Augustiner_Bräu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Augustiner_Br%C3%A4u</t>
+          <t>Augustiner_Bräu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Augustiner Bräu München est une brasserie Munichoise, dont le site le plus ancien est encore en fonctionnement, les moines de l'ordre des Augustins l'ayant fondé en 1328.
-La bière produite ne bénéficie d'aucune campagne publicitaire[1],[2]. Elle dispose cependant d'une solide réputation basée sur la qualité.
+La bière produite ne bénéficie d'aucune campagne publicitaire,. Elle dispose cependant d'une solide réputation basée sur la qualité.
 Augustiner fait partie, avec Spaten, Paulaner, Hacker-Pschorr, Hofbräu München et Löwenbräu, des six brasseurs officiels de la fête de la bière de Munich, l'Oktoberfest.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Augustiner_Br%C3%A4u</t>
+          <t>Augustiner_Bräu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon sa fermentation, la bière est déclinée en plusieurs variantes :
 Lagerbier Hell (Helles)
